--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D829CA-8D3E-4025-9458-0D02C2E5F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C0E2C-DEC8-43C2-951A-F4CBDF37E1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="114">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -634,6 +634,13 @@
   </si>
   <si>
     <t>PLLove_Think.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業中</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウチュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -724,7 +731,14 @@
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1289,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1399,8 +1413,8 @@
       <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1419,8 +1433,8 @@
       <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1439,8 +1453,8 @@
       <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1459,8 +1473,8 @@
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1476,8 +1490,8 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1493,8 +1507,8 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1510,8 +1524,8 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1527,8 +1541,8 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1544,8 +1558,8 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1561,8 +1575,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1578,8 +1592,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1595,8 +1609,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1612,8 +1626,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1629,8 +1643,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1646,8 +1660,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1663,8 +1677,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1680,8 +1694,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1700,8 +1714,8 @@
       <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1720,8 +1734,8 @@
       <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1740,8 +1754,8 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1957,103 +1971,108 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D107 E30">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D93 E30">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 E30">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D89 E30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Result"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F51">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2064,7 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC609BB5-632B-410C-963F-1E5B4E0490D1}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
@@ -2515,30 +2534,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2551,7 +2570,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D64"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2881,25 +2900,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3268,7 +3287,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3633,7 +3652,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3998,7 +4017,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C0E2C-DEC8-43C2-951A-F4CBDF37E1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C1888-45F8-4967-9A00-6F3D0DE5AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1920xN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>512x512</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -640,6 +636,100 @@
     <t>作業中</t>
     <rPh sb="0" eb="3">
       <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Texture/+A13:C13Fight/UI/Revolver/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リボルバーベースのチャンバーサイズに合わせる</t>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>512x256</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1920x128</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>256x256</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200x25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>600x1000(大体の比率があってれば、サイズはおおきくしてもOK)</t>
+    <rPh sb="9" eb="11">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュウダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>512x128(装飾を含めてサイズ調整して欲しい）</t>
+  </si>
+  <si>
+    <t>512x128(装飾を含めてサイズ調整して欲しい）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200x25以上（HPバーを中に入れるので装飾を含めてサイズ調整して欲しい）</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200x25以上（HPバーを中に入れるので装飾を含めてサイズ調整して欲しい）</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ホ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -732,13 +822,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -834,6 +917,13 @@
       <fill>
         <patternFill>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1303,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1313,7 +1403,7 @@
     <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="46.375" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="69.25" customWidth="1"/>
     <col min="6" max="6" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1334,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1411,10 +1501,10 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1431,10 +1521,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1471,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1485,13 +1575,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1502,13 +1595,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1519,13 +1615,16 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1541,8 +1640,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1553,13 +1655,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1575,8 +1680,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1592,8 +1700,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1609,8 +1720,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1626,8 +1740,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1643,8 +1760,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1660,8 +1780,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1677,8 +1800,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1694,8 +1820,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1712,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1732,10 +1861,10 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1752,24 +1881,27 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1777,16 +1909,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1794,16 +1929,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1811,16 +1949,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1828,16 +1969,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1845,16 +1989,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
@@ -1970,17 +2114,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D107 E30">
+  <conditionalFormatting sqref="D3:D107 E30 E26:E27">
     <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D93 E30">
+  <conditionalFormatting sqref="D3:D93 E30 E26:E27">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D103 E30">
+  <conditionalFormatting sqref="D3:D103 E30 E26:E27">
     <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -1988,17 +2132,17 @@
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
+  <conditionalFormatting sqref="E3:E19">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
+  <conditionalFormatting sqref="E3:E19">
     <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
+  <conditionalFormatting sqref="E3:E19">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -2042,17 +2186,17 @@
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E24:E25">
     <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E24:E25">
     <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E24:E25">
     <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -2065,13 +2209,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D89 E30">
+  <conditionalFormatting sqref="D3:D89 E30 E26:E27">
     <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F51">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -2132,13 +2276,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2149,13 +2293,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2166,13 +2310,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2183,13 +2327,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2200,13 +2344,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2217,13 +2361,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2234,13 +2378,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2251,13 +2395,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2268,13 +2412,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2285,70 +2429,70 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2534,30 +2678,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2599,7 +2743,7 @@
         <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2624,13 +2768,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2644,13 +2788,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2900,25 +3044,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2956,7 +3100,7 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2978,13 +3122,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2995,7 +3139,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3287,7 +3431,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3324,7 +3468,7 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3346,13 +3490,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3652,7 +3796,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3689,7 +3833,7 @@
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3711,13 +3855,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4017,7 +4161,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C1888-45F8-4967-9A00-6F3D0DE5AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CBD06F-AECF-4894-BBD8-44FE3E4FDEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CBD06F-AECF-4894-BBD8-44FE3E4FDEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE33511-E5AE-4E8E-8107-B86FB333FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="3" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -633,13 +633,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作業中</t>
-    <rPh sb="0" eb="3">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Texture/+A13:C13Fight/UI/Revolver/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -730,6 +723,37 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱体化（攻撃）</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱体化（防御）</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -821,7 +845,77 @@
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1393,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1501,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1524,7 +1618,7 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1544,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1564,7 +1658,7 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1581,10 +1675,10 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1601,10 +1695,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1621,10 +1715,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1644,7 +1738,7 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1655,16 +1749,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1681,10 +1775,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1701,10 +1795,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1721,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1741,10 +1835,10 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1761,10 +1855,10 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1781,10 +1875,10 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1801,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1821,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1844,7 +1938,7 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1864,7 +1958,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1884,7 +1978,7 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1901,7 +1995,7 @@
         <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1941,7 +2035,7 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1961,7 +2055,7 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1981,7 +2075,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2115,108 +2209,113 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D107 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D93 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D89 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F51">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F77">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,30 +2777,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3044,25 +3143,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3074,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B7D2F-3DC1-4986-8938-4A702B9CDE4A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3149,6 +3248,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -3157,6 +3259,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
@@ -3165,6 +3270,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
       <c r="D7">
         <v>4</v>
       </c>
@@ -3430,9 +3538,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E60:E74">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E59">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E51">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E59">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3796,7 +3919,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4161,7 +4284,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE33511-E5AE-4E8E-8107-B86FB333FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD8829-D2D6-48EB-9653-627F6257A7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="3" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -845,18 +845,11 @@
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,48 +871,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1011,6 +962,13 @@
       <fill>
         <patternFill>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1487,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2209,112 +2167,112 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D107 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D93 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D89 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F51">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F77">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2777,30 +2735,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3143,25 +3101,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3173,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B7D2F-3DC1-4986-8938-4A702B9CDE4A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3539,22 +3497,22 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E60:E74">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E51">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3919,7 +3877,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4284,7 +4242,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD8829-D2D6-48EB-9653-627F6257A7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4306FDBE-51C1-40B2-B2EB-9F2E6D1859C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -755,6 +755,70 @@
     <rPh sb="4" eb="6">
       <t>ボウギョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘時背景1</t>
+    <rPh sb="0" eb="3">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘時背景2</t>
+    <rPh sb="0" eb="3">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘時背景3</t>
+    <rPh sb="0" eb="3">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Texture/Love/Background/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fight_BackGround1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fight_BackGround2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fight_BackGround3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Love_BackGround.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛パート背景</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1920x2160</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1435,7 +1499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1445,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2060,91 +2124,151 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
       <c r="F33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>0</v>
       </c>
@@ -2166,17 +2290,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D107 E30 E26:E27">
+  <conditionalFormatting sqref="E26:E27 D3:D107 E30:E34">
     <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D93 E30 E26:E27">
+  <conditionalFormatting sqref="E26:E27 D3:D93 E30:E34">
     <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D103 E30 E26:E27">
+  <conditionalFormatting sqref="E26:E27 D3:D103 E30:E34">
     <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -2261,7 +2385,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D89 E30 E26:E27">
+  <conditionalFormatting sqref="E26:E27 D3:D89 E30:E34">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Result"</formula>
     </cfRule>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibi\デスクトップ\LoveBullet\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD8829-D2D6-48EB-9653-627F6257A7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F7409-1AE4-44AC-997C-85FE3A33FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="2136" yWindow="3804" windowWidth="17280" windowHeight="8880" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="155">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -756,13 +756,170 @@
       <t>ボウギョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション画面の黒い背景</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TA_OptionBackGroundBlack</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Texture/Option/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション画面自体の背景</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_OptionBackGround</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1300x900</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オプション画面のボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_INOptionButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>588x152</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>音量調整バー</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_VolumeVer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>600x30</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>音量調整バーのスライダー</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_VolumeVerSlider</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>32x58</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チェックボックスの枠</t>
+    <rPh sb="9" eb="10">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_CheckBoxFrame</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>48x48</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チェックボックスの中身</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_CheckBox</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>34x33</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームを閉じますかの背景</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_ExitBackGround</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1429ｘ704</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームを閉じますかのボタン</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_ExitButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>427x130</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +941,21 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -825,27 +997,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{93E1F42B-99D0-4626-830F-E970375A6084}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1435,7 +1677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1445,21 +1687,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="45.75" customWidth="1"/>
-    <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="69.25" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="45.69921875" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="5" max="5" width="69.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1801,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1881,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1679,7 +1921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +1961,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1981,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +2001,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1779,7 +2021,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +2041,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1819,7 +2061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +2081,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1859,7 +2101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +2121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1899,7 +2141,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +2161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1939,7 +2181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1959,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1979,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1999,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2019,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2059,221 +2301,397 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D107 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+  <conditionalFormatting sqref="D3:D30 E30 E26:E27 D40:D107">
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D93 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+  <conditionalFormatting sqref="D3:D30 E30 E26:E27 D40:D93">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D103 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
+  <conditionalFormatting sqref="D3:D30 E30 E26:E27 D40:D103">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D89 E30 E26:E27">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+  <conditionalFormatting sqref="D3:D30 E30 E26:E27 D40:D89">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F51">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F77">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"仮"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D39">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Fight"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D39">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Love"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D39">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"End"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E39">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Fight"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E39">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Love"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E39">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"End"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D39">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,16 +2706,16 @@
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="47.59765625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2314,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2348,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2365,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2382,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2399,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2416,7 +2834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2433,7 +2851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2450,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2467,7 +2885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2484,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -2501,7 +2919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2518,7 +2936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2535,7 +2953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2552,182 +2970,182 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D51">
         <v>0</v>
       </c>
@@ -2735,30 +3153,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2774,16 +3192,16 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="61.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" customWidth="1"/>
+    <col min="5" max="5" width="44.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2803,7 +3221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2843,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2863,237 +3281,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51">
         <v>0</v>
       </c>
@@ -3101,25 +3519,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3135,15 +3553,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.25" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="52.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" customWidth="1"/>
+    <col min="3" max="3" width="42.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3194,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3205,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3216,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3227,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3238,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -3246,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -3254,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -3262,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -3270,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -3278,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -3286,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -3294,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -3302,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -3310,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -3318,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -3326,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -3334,162 +3752,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -3497,22 +3915,22 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E60:E74">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E51">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3528,14 +3946,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="38.09765625" customWidth="1"/>
+    <col min="3" max="3" width="54.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3552,7 +3970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3586,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>1</v>
       </c>
@@ -3594,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2</v>
       </c>
@@ -3602,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>3</v>
       </c>
@@ -3610,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>4</v>
       </c>
@@ -3618,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -3626,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -3634,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -3642,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -3650,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -3658,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -3666,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -3674,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -3682,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -3690,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -3698,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -3706,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -3714,162 +4132,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -3877,7 +4295,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3893,14 +4311,14 @@
       <selection activeCell="D1" sqref="D1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="44.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3917,7 +4335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>1</v>
       </c>
@@ -3959,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2</v>
       </c>
@@ -3967,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>3</v>
       </c>
@@ -3975,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>4</v>
       </c>
@@ -3983,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -3991,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -3999,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -4007,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -4015,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -4023,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -4031,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -4039,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -4047,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -4055,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -4063,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -4071,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -4079,162 +4497,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -4242,7 +4660,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
+++ b/管理/素材用エクセル/素材リスト_テクスチャ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibi\デスクトップ\LoveBullet\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4306FDBE-51C1-40B2-B2EB-9F2E6D1859C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF8BD0-CFC8-4E26-BD2B-E0025776B157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-28905" yWindow="16275" windowWidth="29040" windowHeight="15720" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="166">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -820,13 +820,177 @@
   <si>
     <t>1920x2160</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション画面の黒い背景</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TA_OptionBackGroundBlack</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Texture/Option/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オプション画面自体の背景</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_OptionBackGround</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1300x900</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オプション画面のボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_INOptionButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>588x152</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>音量調整バー</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_VolumeVer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>600x30</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>音量調整バーのスライダー</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_VolumeVerSlider</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>32x58</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チェックボックスの枠</t>
+    <rPh sb="9" eb="10">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_CheckBoxFrame</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>48x48</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チェックボックスの中身</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_CheckBox</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>34x33</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームを閉じますかの背景</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_ExitBackGround</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1429ｘ704</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームを閉じますかのボタン</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TA_ExitButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>427x130</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +1012,21 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -889,27 +1068,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{EB963402-5313-4010-B3E4-09DD49019289}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1509,21 +1779,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="45.75" customWidth="1"/>
-    <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="69.25" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="45.69921875" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="5" max="5" width="69.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1623,7 +1893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1663,7 +1933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1683,7 +1953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1973,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +2013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +2033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +2053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +2073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +2093,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +2113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +2133,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +2153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1903,7 +2173,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +2193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1943,7 +2213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1963,7 +2233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1983,7 +2253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2003,7 +2273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2023,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2043,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2063,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2083,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2103,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2123,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -2143,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -2163,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -2183,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2203,200 +2473,391 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E26:E27 D3:D107 E30:E34">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+  <conditionalFormatting sqref="E26:E27 D3:D34 E30:E34 D44:D107">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27 D3:D93 E30:E34">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+  <conditionalFormatting sqref="E26:E27 D3:D34 E30:E34 D44:D93">
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27 D3:D103 E30:E34">
-    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
+  <conditionalFormatting sqref="E26:E27 D3:D34 E30:E34 D44:D103">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+  <conditionalFormatting sqref="F3:F34 F44:F74">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27 D3:D89 E30:E34">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+  <conditionalFormatting sqref="E26:E27 D3:D34 E30:E34 D44:D89">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F51">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+  <conditionalFormatting sqref="F3:F34 F44:F51">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F77">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="F3:F34 F44:F77">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>"仮"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D43">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"Fight"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D43">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Love"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D43">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"End"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E43">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Fight"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E43">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Love"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E43">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"End"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Title"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F43">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D43">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F43">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2412,16 +2873,16 @@
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="47.59765625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2472,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2489,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2506,7 +2967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2523,7 +2984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2540,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2557,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2574,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2591,7 +3052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2608,7 +3069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -2625,7 +3086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2642,7 +3103,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2659,7 +3120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2676,182 +3137,182 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D51">
         <v>0</v>
       </c>
@@ -2859,30 +3320,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2898,16 +3359,16 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="61.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" customWidth="1"/>
+    <col min="5" max="5" width="44.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2927,7 +3388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2967,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2987,237 +3448,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51">
         <v>0</v>
       </c>
@@ -3225,25 +3686,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3259,15 +3720,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.25" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="52.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" customWidth="1"/>
+    <col min="3" max="3" width="42.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3318,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3329,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3340,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3351,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3362,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -3370,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -3378,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -3386,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -3394,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -3402,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -3410,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -3418,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -3426,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -3434,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -3442,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -3450,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -3458,162 +3919,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -3621,22 +4082,22 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E60:E74">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E51">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"作業中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"仮"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3652,14 +4113,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="38.09765625" customWidth="1"/>
+    <col min="3" max="3" width="54.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3676,7 +4137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +4154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3710,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>1</v>
       </c>
@@ -3718,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2</v>
       </c>
@@ -3726,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>3</v>
       </c>
@@ -3734,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>4</v>
       </c>
@@ -3742,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -3750,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -3758,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -3766,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -3774,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -3782,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -3790,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -3798,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -3806,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -3814,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -3822,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -3830,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -3838,162 +4299,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -4001,7 +4462,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4017,14 +4478,14 @@
       <selection activeCell="D1" sqref="D1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="44.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4041,7 +4502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -4075,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D4">
         <v>1</v>
       </c>
@@ -4083,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2</v>
       </c>
@@ -4091,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6">
         <v>3</v>
       </c>
@@ -4099,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7">
         <v>4</v>
       </c>
@@ -4107,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>5</v>
       </c>
@@ -4115,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>6</v>
       </c>
@@ -4123,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10">
         <v>7</v>
       </c>
@@ -4131,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>8</v>
       </c>
@@ -4139,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>9</v>
       </c>
@@ -4147,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>10</v>
       </c>
@@ -4155,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>11</v>
       </c>
@@ -4163,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>12</v>
       </c>
@@ -4171,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>13</v>
       </c>
@@ -4179,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <v>14</v>
       </c>
@@ -4187,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>15</v>
       </c>
@@ -4195,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>16</v>
       </c>
@@ -4203,162 +4664,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E51">
         <v>0</v>
       </c>
@@ -4366,7 +4827,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
